--- a/Data/Data Keys.xlsx
+++ b/Data/Data Keys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96cc1363e59f2cdc/Data_Analysis_bootcamp/Module_20/dexter_project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25D863A-E1C5-4A18-8E96-6A2D4B978B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{B25D863A-E1C5-4A18-8E96-6A2D4B978B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99CEE470-7D16-46D3-ADA6-221FCA14C8F8}"/>
   <bookViews>
-    <workbookView xWindow="-1605" yWindow="5175" windowWidth="31380" windowHeight="15435" firstSheet="4" activeTab="7" xr2:uid="{C6FDEC38-CE45-4E93-A3E2-8C523C682540}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C6FDEC38-CE45-4E93-A3E2-8C523C682540}"/>
   </bookViews>
   <sheets>
     <sheet name="weather data key" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="3552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="3575">
   <si>
     <t>WT01</t>
   </si>
@@ -10698,13 +10698,82 @@
   </si>
   <si>
     <t>Weather delay is caused by extreme or hazardous weather conditions that are forecasted or manifest themselves on point of departure, enroute, or on point of arrival.</t>
+  </si>
+  <si>
+    <t>WSF2 - Fastest 2-minute wind speed</t>
+  </si>
+  <si>
+    <t>WSF5 - Fastest 5-second wind speed</t>
+  </si>
+  <si>
+    <t>SNOW - Snowfall</t>
+  </si>
+  <si>
+    <t>WT03 - Thunder</t>
+  </si>
+  <si>
+    <t>WT04 - Ice pellets, sleet, snow pellets, or small hail"</t>
+  </si>
+  <si>
+    <t>PRCP - Precipitation</t>
+  </si>
+  <si>
+    <t>WT05 - Hail (may include small hail)</t>
+  </si>
+  <si>
+    <t>TOBS - Temperature at the time of observation</t>
+  </si>
+  <si>
+    <t>WT06 - Glaze or rime</t>
+  </si>
+  <si>
+    <t>WT08 - Smoke or haze</t>
+  </si>
+  <si>
+    <t>SNWD - Snow depth</t>
+  </si>
+  <si>
+    <t>WT09 - Blowing or drifting snow</t>
+  </si>
+  <si>
+    <t>WDF2 - Direction of fastest 2-minute wind</t>
+  </si>
+  <si>
+    <t>AWND - Average wind speed</t>
+  </si>
+  <si>
+    <t>WDF5 - Direction of fastest 5-second wind</t>
+  </si>
+  <si>
+    <t>PGTM - Peak gust time</t>
+  </si>
+  <si>
+    <t>WT11 - High or damaging winds</t>
+  </si>
+  <si>
+    <t>WT01 - Fog, ice fog, or freezing fog (may include heavy fog)</t>
+  </si>
+  <si>
+    <t>TMAX - Maximum temperature</t>
+  </si>
+  <si>
+    <t>WESD - Water equivalent of snow on the ground</t>
+  </si>
+  <si>
+    <t>WT02 - Heavy fog or heaving freezing fog (not always distinguished from fog)</t>
+  </si>
+  <si>
+    <t>TAVG - Average Temperature.</t>
+  </si>
+  <si>
+    <t>TMIN - Minimum temperature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10730,16 +10799,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -10762,11 +10843,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -10789,6 +10901,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11104,10 +11225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EDD197-06E1-4BB9-A4F5-6F0F35893D58}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11222,6 +11343,125 @@
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>3574</v>
       </c>
     </row>
   </sheetData>
@@ -25643,7 +25883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A63C62-DD62-49E3-B880-1E01849407F4}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
